--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Ccl12-Ccr2.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Ccl12-Ccr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -83,6 +86,12 @@
   </si>
   <si>
     <t>Ccr2</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -440,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -525,49 +534,483 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>46.8640829208807</v>
+        <v>3.288126333333333</v>
       </c>
       <c r="H2">
-        <v>46.8640829208807</v>
+        <v>9.864379</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.05813306630866938</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.05813306630866937</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>114.71478244404</v>
+        <v>9.506851333333334</v>
       </c>
       <c r="N2">
-        <v>114.71478244404</v>
+        <v>28.520554</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.04665929098818478</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.04665929098818478</v>
       </c>
       <c r="Q2">
-        <v>5376.00307670828</v>
+        <v>31.25972821621844</v>
       </c>
       <c r="R2">
-        <v>5376.00307670828</v>
+        <v>281.337553945966</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>0.002712447656931646</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>0.002712447656931645</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G3">
+        <v>3.288126333333333</v>
+      </c>
+      <c r="H3">
+        <v>9.864379</v>
+      </c>
+      <c r="I3">
+        <v>0.05813306630866938</v>
+      </c>
+      <c r="J3">
+        <v>0.05813306630866937</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M3">
+        <v>0.01112833333333333</v>
+      </c>
+      <c r="N3">
+        <v>0.033385</v>
+      </c>
+      <c r="O3">
+        <v>5.461746744612846E-05</v>
+      </c>
+      <c r="P3">
+        <v>5.461746744612846E-05</v>
+      </c>
+      <c r="Q3">
+        <v>0.03659136587944443</v>
+      </c>
+      <c r="R3">
+        <v>0.329322292915</v>
+      </c>
+      <c r="S3">
+        <v>3.175080856657377E-06</v>
+      </c>
+      <c r="T3">
+        <v>3.175080856657377E-06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>3.288126333333333</v>
+      </c>
+      <c r="H4">
+        <v>9.864379</v>
+      </c>
+      <c r="I4">
+        <v>0.05813306630866938</v>
+      </c>
+      <c r="J4">
+        <v>0.05813306630866937</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>194.1975953333333</v>
+      </c>
+      <c r="N4">
+        <v>582.592786</v>
+      </c>
+      <c r="O4">
+        <v>0.9531149475424379</v>
+      </c>
+      <c r="P4">
+        <v>0.9531149475424379</v>
+      </c>
+      <c r="Q4">
+        <v>638.5462270855437</v>
+      </c>
+      <c r="R4">
+        <v>5746.916043769894</v>
+      </c>
+      <c r="S4">
+        <v>0.05540749444526848</v>
+      </c>
+      <c r="T4">
+        <v>0.05540749444526847</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>3.288126333333333</v>
+      </c>
+      <c r="H5">
+        <v>9.864379</v>
+      </c>
+      <c r="I5">
+        <v>0.05813306630866938</v>
+      </c>
+      <c r="J5">
+        <v>0.05813306630866937</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.03487066666666667</v>
+      </c>
+      <c r="N5">
+        <v>0.104612</v>
+      </c>
+      <c r="O5">
+        <v>0.0001711440019312383</v>
+      </c>
+      <c r="P5">
+        <v>0.0001711440019312383</v>
+      </c>
+      <c r="Q5">
+        <v>0.1146591573275555</v>
+      </c>
+      <c r="R5">
+        <v>1.031932415948</v>
+      </c>
+      <c r="S5">
+        <v>9.949125612599717E-06</v>
+      </c>
+      <c r="T5">
+        <v>9.949125612599714E-06</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>53.27393966666666</v>
+      </c>
+      <c r="H6">
+        <v>159.821819</v>
+      </c>
+      <c r="I6">
+        <v>0.9418669336913307</v>
+      </c>
+      <c r="J6">
+        <v>0.9418669336913306</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>9.506851333333334</v>
+      </c>
+      <c r="N6">
+        <v>28.520554</v>
+      </c>
+      <c r="O6">
+        <v>0.04665929098818478</v>
+      </c>
+      <c r="P6">
+        <v>0.04665929098818478</v>
+      </c>
+      <c r="Q6">
+        <v>506.4674243519694</v>
+      </c>
+      <c r="R6">
+        <v>4558.206819167725</v>
+      </c>
+      <c r="S6">
+        <v>0.04394684333125314</v>
+      </c>
+      <c r="T6">
+        <v>0.04394684333125314</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>53.27393966666666</v>
+      </c>
+      <c r="H7">
+        <v>159.821819</v>
+      </c>
+      <c r="I7">
+        <v>0.9418669336913307</v>
+      </c>
+      <c r="J7">
+        <v>0.9418669336913306</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.01112833333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.033385</v>
+      </c>
+      <c r="O7">
+        <v>5.461746744612846E-05</v>
+      </c>
+      <c r="P7">
+        <v>5.461746744612846E-05</v>
+      </c>
+      <c r="Q7">
+        <v>0.5928501585905553</v>
+      </c>
+      <c r="R7">
+        <v>5.335651427314999</v>
+      </c>
+      <c r="S7">
+        <v>5.144238658947109E-05</v>
+      </c>
+      <c r="T7">
+        <v>5.144238658947108E-05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>53.27393966666666</v>
+      </c>
+      <c r="H8">
+        <v>159.821819</v>
+      </c>
+      <c r="I8">
+        <v>0.9418669336913307</v>
+      </c>
+      <c r="J8">
+        <v>0.9418669336913306</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>194.1975953333333</v>
+      </c>
+      <c r="N8">
+        <v>582.592786</v>
+      </c>
+      <c r="O8">
+        <v>0.9531149475424379</v>
+      </c>
+      <c r="P8">
+        <v>0.9531149475424379</v>
+      </c>
+      <c r="Q8">
+        <v>10345.67097719975</v>
+      </c>
+      <c r="R8">
+        <v>93111.03879479773</v>
+      </c>
+      <c r="S8">
+        <v>0.8977074530971695</v>
+      </c>
+      <c r="T8">
+        <v>0.8977074530971694</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>53.27393966666666</v>
+      </c>
+      <c r="H9">
+        <v>159.821819</v>
+      </c>
+      <c r="I9">
+        <v>0.9418669336913307</v>
+      </c>
+      <c r="J9">
+        <v>0.9418669336913306</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.03487066666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.104612</v>
+      </c>
+      <c r="O9">
+        <v>0.0001711440019312383</v>
+      </c>
+      <c r="P9">
+        <v>0.0001711440019312383</v>
+      </c>
+      <c r="Q9">
+        <v>1.857697792136444</v>
+      </c>
+      <c r="R9">
+        <v>16.719280129228</v>
+      </c>
+      <c r="S9">
+        <v>0.0001611948763186386</v>
+      </c>
+      <c r="T9">
+        <v>0.0001611948763186386</v>
       </c>
     </row>
   </sheetData>
